--- a/output/GELIBOLU 380 UNIMAR KUZEY.xlsx
+++ b/output/GELIBOLU 380 UNIMAR KUZEY.xlsx
@@ -863,7 +863,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>50.35</v>
+        <v>53.12</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>102.47</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>97.98</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>93.48</v>
+        <v>82.94</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>88.98999999999999</v>
+        <v>78.94</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>84.48999999999999</v>
+        <v>74.95</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>79.98999999999999</v>
+        <v>70.95</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>75.5</v>
+        <v>66.95</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>91.06999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>90.79000000000001</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>90.51000000000001</v>
+        <v>68.34</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>60.01</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>83.28</v>
+        <v>83.27</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>106.55</v>
+        <v>106.54</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>132.83</v>
+        <v>132.85</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>140.38</v>
+        <v>122.7</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>67.34</v>
+        <v>67.28</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>84.78</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>87.83</v>
+        <v>70.63</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>84.37</v>
+        <v>68.5</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>84.16</v>
+        <v>68.31</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>178.65</v>
+        <v>54.72</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>112.51</v>
+        <v>67.27</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>112.47</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>112.43</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>112.39</v>
+        <v>67.25</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>170.88</v>
+        <v>78.3</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>49.08</v>
+        <v>43.07</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
